--- a/DGRA/DGRA_V1/SampleFormat/Wind_Daily_LoadShedding.xlsx
+++ b/DGRA/DGRA_V1/SampleFormat/Wind_Daily_LoadShedding.xlsx
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -115,19 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -136,16 +129,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,52 +459,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>44287</v>
       </c>
       <c r="C2" s="8">
@@ -520,18 +516,18 @@
         <f>D2-C2</f>
         <v>0.24999999999999994</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>12</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="5">
         <v>25853.27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <f>B2+1</f>
         <v>44288</v>
       </c>
@@ -545,18 +541,18 @@
         <f t="shared" ref="E3:E7" si="0">D3-C3</f>
         <v>0.28611111111111115</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>12</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>34067.300000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B7" si="1">B3+1</f>
         <v>44289</v>
       </c>
@@ -570,18 +566,18 @@
         <f t="shared" si="0"/>
         <v>0.25347222222222215</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>12</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>22170.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <f t="shared" si="1"/>
         <v>44290</v>
       </c>
@@ -595,18 +591,18 @@
         <f t="shared" si="0"/>
         <v>0.26944444444444449</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>12</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>25215.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <f t="shared" si="1"/>
         <v>44291</v>
       </c>
@@ -620,18 +616,18 @@
         <f t="shared" si="0"/>
         <v>0.20347222222222228</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>12</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>12391.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>44292</v>
       </c>
@@ -645,18 +641,18 @@
         <f t="shared" si="0"/>
         <v>0.21875</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>12</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>19872</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
         <v>44300</v>
       </c>
       <c r="C8" s="8">
@@ -665,22 +661,22 @@
       <c r="D8" s="8">
         <v>0.30555555555555552</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" ref="E8:E24" si="2">D8-C8</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F8" s="6">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5">
         <v>22591</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
         <v>44300</v>
       </c>
       <c r="C9" s="8">
@@ -689,22 +685,22 @@
       <c r="D9" s="8">
         <v>0.3611111111111111</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="2"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F9" s="6">
-        <v>50</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5">
         <v>3781</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>44300</v>
       </c>
       <c r="C10" s="8">
@@ -713,22 +709,22 @@
       <c r="D10" s="8">
         <v>0.84027777777777779</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <f t="shared" si="2"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F10" s="6">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5">
         <v>18354</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
         <v>44300</v>
       </c>
       <c r="C11" s="8">
@@ -737,22 +733,22 @@
       <c r="D11" s="8">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="2"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="F11" s="6">
-        <v>50</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5">
         <v>40283</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
         <v>44300</v>
       </c>
       <c r="C12" s="8">
@@ -761,22 +757,22 @@
       <c r="D12" s="8">
         <v>0.86805555555555547</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="2"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="F12" s="6">
-        <v>50</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="3">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5">
         <v>3019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
         <v>44300</v>
       </c>
       <c r="C13" s="8">
@@ -785,22 +781,22 @@
       <c r="D13" s="8">
         <v>0.92361111111111116</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f t="shared" si="2"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="F13" s="6">
-        <v>50</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="3">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5">
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4">
         <v>44300</v>
       </c>
       <c r="C14" s="8">
@@ -809,22 +805,22 @@
       <c r="D14" s="8">
         <v>0.9375</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f t="shared" si="2"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="F14" s="6">
-        <v>50</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="3">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5">
         <v>43322</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
         <v>44301</v>
       </c>
       <c r="C15" s="8">
@@ -833,22 +829,22 @@
       <c r="D15" s="8">
         <v>0.23611111111111113</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f t="shared" si="2"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F15" s="6">
-        <v>50</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="3">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5">
         <v>11705</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4">
         <v>44301</v>
       </c>
       <c r="C16" s="8">
@@ -857,22 +853,22 @@
       <c r="D16" s="8">
         <v>0.34027777777777773</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f t="shared" si="2"/>
         <v>0.1041666666666666</v>
       </c>
-      <c r="F16" s="6">
-        <v>50</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="3">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5">
         <v>3656</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
         <v>44305</v>
       </c>
       <c r="C17" s="8">
@@ -881,22 +877,22 @@
       <c r="D17" s="8">
         <v>0.1388888888888889</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f t="shared" si="2"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F17" s="6">
-        <v>50</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="3">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5">
         <v>3376</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
         <v>44305</v>
       </c>
       <c r="C18" s="8">
@@ -905,22 +901,22 @@
       <c r="D18" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f t="shared" si="2"/>
         <v>2.7777777777777762E-2</v>
       </c>
-      <c r="F18" s="6">
-        <v>50</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="3">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3">
         <v>6815</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
         <v>44306</v>
       </c>
       <c r="C19" s="8">
@@ -929,22 +925,22 @@
       <c r="D19" s="8">
         <v>0.18055555555555555</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f t="shared" si="2"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="F19" s="6">
-        <v>50</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="3">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3">
         <v>6719</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
         <v>44306</v>
       </c>
       <c r="C20" s="8">
@@ -953,22 +949,22 @@
       <c r="D20" s="8">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f t="shared" si="2"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F20" s="6">
-        <v>50</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="3">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3">
         <v>90705</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
         <v>44306</v>
       </c>
       <c r="C21" s="8">
@@ -977,22 +973,22 @@
       <c r="D21" s="8">
         <v>0.86805555555555547</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f t="shared" si="2"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="F21" s="6">
-        <v>50</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="3">
+        <v>50</v>
+      </c>
+      <c r="G21" s="3">
         <v>37780</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4">
         <v>44306</v>
       </c>
       <c r="C22" s="8">
@@ -1001,22 +997,22 @@
       <c r="D22" s="8">
         <v>0.88888888888888884</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f t="shared" si="2"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F22" s="6">
-        <v>50</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="3">
+        <v>50</v>
+      </c>
+      <c r="G22" s="3">
         <v>22583</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="A23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
         <v>44306</v>
       </c>
       <c r="C23" s="8">
@@ -1025,22 +1021,22 @@
       <c r="D23" s="8">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f t="shared" si="2"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="F23" s="6">
-        <v>50</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="3">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3">
         <v>78471</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
         <v>44306</v>
       </c>
       <c r="C24" s="8">
@@ -1049,14 +1045,14 @@
       <c r="D24" s="8">
         <v>0.90277777777777779</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f t="shared" si="2"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F24" s="6">
-        <v>50</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="3">
+        <v>50</v>
+      </c>
+      <c r="G24" s="3">
         <v>25508</v>
       </c>
     </row>
